--- a/data/out/wiki/men/uefa/eu/tab_prob_eu_uefa_csato.xlsx
+++ b/data/out/wiki/men/uefa/eu/tab_prob_eu_uefa_csato.xlsx
@@ -1162,25 +1162,25 @@
         <v>0.41952528135487</v>
       </c>
       <c r="I10">
-        <v>0.4173999670213793</v>
+        <v>0.4173999670213792</v>
       </c>
       <c r="J10">
-        <v>0.1630747516237507</v>
+        <v>0.1630747516237508</v>
       </c>
       <c r="K10">
         <v>0.08404484276863056</v>
       </c>
       <c r="L10">
-        <v>0.07992340590480351</v>
+        <v>0.0799234059048034</v>
       </c>
       <c r="M10">
-        <v>-0.1639682486734341</v>
+        <v>-0.163968248673434</v>
       </c>
       <c r="N10">
-        <v>0.1639682486734341</v>
+        <v>0.163968248673434</v>
       </c>
       <c r="O10">
-        <v>0.3279364973468681</v>
+        <v>0.3279364973468679</v>
       </c>
       <c r="P10">
         <v>0.2077274770725069</v>
@@ -1224,10 +1224,10 @@
         <v>0.1188801435795535</v>
       </c>
       <c r="L11">
-        <v>-0.04120407868892478</v>
+        <v>-0.04120407868892467</v>
       </c>
       <c r="M11">
-        <v>-0.07767606489062867</v>
+        <v>-0.07767606489062878</v>
       </c>
       <c r="N11">
         <v>0.1188801435795535</v>
@@ -1265,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I12">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J12">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K12">
-        <v>0.4615945750635765</v>
+        <v>0.4615945750635764</v>
       </c>
       <c r="L12">
         <v>-0.3761958883314546</v>
@@ -1283,13 +1283,13 @@
         <v>-0.085398686732122</v>
       </c>
       <c r="N12">
-        <v>0.4615945750635765</v>
+        <v>0.4615945750635764</v>
       </c>
       <c r="O12">
-        <v>0.9231891501271531</v>
+        <v>0.923189150127153</v>
       </c>
       <c r="P12">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q12" t="s">
         <v>66</v>
@@ -1327,7 +1327,7 @@
         <v>0.06136763901141329</v>
       </c>
       <c r="K13">
-        <v>-0.6926970134693792</v>
+        <v>-0.6926970134693791</v>
       </c>
       <c r="L13">
         <v>0.631329374458966</v>
@@ -1336,7 +1336,7 @@
         <v>0.06136763901041329</v>
       </c>
       <c r="N13">
-        <v>0.6926970134693792</v>
+        <v>0.6926970134693791</v>
       </c>
       <c r="O13">
         <v>1.385394026938758</v>
@@ -1427,25 +1427,25 @@
         <v>0.3220173219294984</v>
       </c>
       <c r="I15">
-        <v>0.5964450568995628</v>
+        <v>0.596445056899563</v>
       </c>
       <c r="J15">
-        <v>0.08153762117093877</v>
+        <v>0.08153762117093866</v>
       </c>
       <c r="K15">
         <v>-0.1957522776384744</v>
       </c>
       <c r="L15">
-        <v>0.3496223362948928</v>
+        <v>0.3496223362948929</v>
       </c>
       <c r="M15">
-        <v>-0.1538700586564185</v>
+        <v>-0.1538700586564186</v>
       </c>
       <c r="N15">
-        <v>0.3496223362948928</v>
+        <v>0.3496223362948929</v>
       </c>
       <c r="O15">
-        <v>0.6992446725897856</v>
+        <v>0.6992446725897858</v>
       </c>
       <c r="P15">
         <v>0.1779699182704052</v>
@@ -1692,10 +1692,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I20">
-        <v>9.999999999980037E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J20">
-        <v>9.999999999980037E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K20">
         <v>0.5129346872337622</v>
@@ -1713,7 +1713,7 @@
         <v>1.025869374467525</v>
       </c>
       <c r="P20">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -1795,31 +1795,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.7060543872622721</v>
+        <v>0.7060543872622719</v>
       </c>
       <c r="I22">
         <v>0.2116367967383345</v>
       </c>
       <c r="J22">
-        <v>0.08230881599939344</v>
+        <v>0.08230881599939366</v>
       </c>
       <c r="K22">
-        <v>0.1121844835962729</v>
+        <v>0.1121844835962726</v>
       </c>
       <c r="L22">
         <v>-0.01240806390244736</v>
       </c>
       <c r="M22">
-        <v>-0.0997764196938255</v>
+        <v>-0.09977641969382528</v>
       </c>
       <c r="N22">
-        <v>0.1121844835962729</v>
+        <v>0.1121844835962726</v>
       </c>
       <c r="O22">
-        <v>0.2243689671925457</v>
+        <v>0.2243689671925453</v>
       </c>
       <c r="P22">
-        <v>0.1499741091009375</v>
+        <v>0.1499741091009376</v>
       </c>
       <c r="Q22" t="s">
         <v>70</v>
@@ -1851,28 +1851,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I23">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J23">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K23">
-        <v>0.2939456127357278</v>
+        <v>0.2939456127357281</v>
       </c>
       <c r="L23">
         <v>-0.2116367967373345</v>
       </c>
       <c r="M23">
-        <v>-0.08230881599839343</v>
+        <v>-0.08230881599839365</v>
       </c>
       <c r="N23">
-        <v>0.2939456127357278</v>
+        <v>0.2939456127357281</v>
       </c>
       <c r="O23">
-        <v>0.5878912254714558</v>
+        <v>0.5878912254714562</v>
       </c>
       <c r="P23">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q23" t="s">
         <v>70</v>
@@ -2384,7 +2384,7 @@
         <v>0.4128627049239206</v>
       </c>
       <c r="J33">
-        <v>0.1466383176423241</v>
+        <v>0.146638317642324</v>
       </c>
       <c r="K33">
         <v>0.04317271205953599</v>
@@ -2399,7 +2399,7 @@
         <v>0.1759942789602992</v>
       </c>
       <c r="O33">
-        <v>0.3519885579205984</v>
+        <v>0.3519885579205985</v>
       </c>
       <c r="P33">
         <v>0.2046674138539162</v>
@@ -2446,7 +2446,7 @@
         <v>0.204436658607568</v>
       </c>
       <c r="M34">
-        <v>0.03043864722556783</v>
+        <v>0.03043864722556788</v>
       </c>
       <c r="N34">
         <v>0.2348753058331359</v>
@@ -2646,28 +2646,28 @@
         <v>0.2285022706119729</v>
       </c>
       <c r="I38">
-        <v>0.6500227386998523</v>
+        <v>0.6500227386998521</v>
       </c>
       <c r="J38">
-        <v>0.1214749906881748</v>
+        <v>0.121474990688175</v>
       </c>
       <c r="K38">
         <v>-0.04027182228456605</v>
       </c>
       <c r="L38">
-        <v>0.2419393063447147</v>
+        <v>0.2419393063447144</v>
       </c>
       <c r="M38">
-        <v>-0.2016674840601486</v>
+        <v>-0.2016674840601484</v>
       </c>
       <c r="N38">
-        <v>0.2419393063447147</v>
+        <v>0.2419393063447144</v>
       </c>
       <c r="O38">
-        <v>0.4838786126894293</v>
+        <v>0.4838786126894289</v>
       </c>
       <c r="P38">
-        <v>0.1701669927118747</v>
+        <v>0.1701669927118748</v>
       </c>
       <c r="Q38" t="s">
         <v>74</v>
@@ -2805,10 +2805,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I41">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J41">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K41">
         <v>0.3704077218363443</v>
@@ -2826,7 +2826,7 @@
         <v>0.7408154436726888</v>
       </c>
       <c r="P41">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q41" t="s">
         <v>73</v>
@@ -2911,10 +2911,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I43">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J43">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K43">
         <v>0.5257164402469856</v>
@@ -2932,7 +2932,7 @@
         <v>1.051432880493971</v>
       </c>
       <c r="P43">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q43" t="s">
         <v>73</v>
@@ -3014,31 +3014,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.5694306245714645</v>
+        <v>0.5694306245714643</v>
       </c>
       <c r="I45">
         <v>0.2400670263576621</v>
       </c>
       <c r="J45">
-        <v>0.1905023490708733</v>
+        <v>0.1905023490708735</v>
       </c>
       <c r="K45">
-        <v>0.2151578805658954</v>
+        <v>0.2151578805658951</v>
       </c>
       <c r="L45">
         <v>-0.02720084078478069</v>
       </c>
       <c r="M45">
-        <v>-0.1879570397811147</v>
+        <v>-0.1879570397811144</v>
       </c>
       <c r="N45">
-        <v>0.2151578805658954</v>
+        <v>0.2151578805658951</v>
       </c>
       <c r="O45">
-        <v>0.4303157611317907</v>
+        <v>0.4303157611317903</v>
       </c>
       <c r="P45">
-        <v>0.1939418138848068</v>
+        <v>0.1939418138848069</v>
       </c>
       <c r="Q45" t="s">
         <v>76</v>
@@ -3076,19 +3076,19 @@
         <v>0.0795668214584484</v>
       </c>
       <c r="K46">
-        <v>0.1723434020298519</v>
+        <v>0.1723434020298521</v>
       </c>
       <c r="L46">
         <v>-0.06140787441742696</v>
       </c>
       <c r="M46">
-        <v>-0.1109355276124249</v>
+        <v>-0.1109355276124251</v>
       </c>
       <c r="N46">
-        <v>0.1723434020298519</v>
+        <v>0.1723434020298521</v>
       </c>
       <c r="O46">
-        <v>0.3446868040597038</v>
+        <v>0.3446868040597042</v>
       </c>
       <c r="P46">
         <v>0.1371737739368883</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.9999999999979998</v>
+        <v>0.9999999999979999</v>
       </c>
       <c r="I47">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J47">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K47">
-        <v>0.2582259733966834</v>
+        <v>0.2582259733966835</v>
       </c>
       <c r="L47">
         <v>-0.1786591519392352</v>
@@ -3138,13 +3138,13 @@
         <v>-0.07956682145744839</v>
       </c>
       <c r="N47">
-        <v>0.2582259733966834</v>
+        <v>0.2582259733966835</v>
       </c>
       <c r="O47">
-        <v>0.516451946793367</v>
+        <v>0.5164519467933671</v>
       </c>
       <c r="P47">
-        <v>1.333392600384897E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q47" t="s">
         <v>76</v>
@@ -3388,7 +3388,7 @@
         <v>0.03961311067000917</v>
       </c>
       <c r="I52">
-        <v>0.3146999318393836</v>
+        <v>0.3146999318393837</v>
       </c>
       <c r="J52">
         <v>0.6456869574906072</v>
@@ -3397,7 +3397,7 @@
         <v>-0.03221811533628161</v>
       </c>
       <c r="L52">
-        <v>-0.0102252553503755</v>
+        <v>-0.01022525535037538</v>
       </c>
       <c r="M52">
         <v>0.04244337068665704</v>
@@ -3406,7 +3406,7 @@
         <v>0.04244337068665704</v>
       </c>
       <c r="O52">
-        <v>0.08488674137331415</v>
+        <v>0.08488674137331403</v>
       </c>
       <c r="P52">
         <v>0.1608277024299519</v>
@@ -3450,7 +3450,7 @@
         <v>0.02236152435358141</v>
       </c>
       <c r="L53">
-        <v>0.2167091857482189</v>
+        <v>0.2167091857482188</v>
       </c>
       <c r="M53">
         <v>-0.2390707101018003</v>
@@ -3459,7 +3459,7 @@
         <v>0.2390707101018003</v>
       </c>
       <c r="O53">
-        <v>0.4781414202036006</v>
+        <v>0.4781414202036005</v>
       </c>
       <c r="P53">
         <v>0.182808907239301</v>
@@ -3653,10 +3653,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I57">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J57">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K57">
         <v>0.2990535028248417</v>
@@ -3674,7 +3674,7 @@
         <v>0.5981070056496834</v>
       </c>
       <c r="P57">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q57" t="s">
         <v>66</v>
@@ -3706,28 +3706,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I58">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J58">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K58">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L58">
-        <v>-6.058451752097371E-28</v>
+        <v>-6.058451752097371e-28</v>
       </c>
       <c r="M58">
-        <v>-6.058451752097371E-28</v>
+        <v>-6.058451752097371e-28</v>
       </c>
       <c r="N58">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O58">
-        <v>1.110223024637273E-16</v>
+        <v>1.110223024637273e-16</v>
       </c>
       <c r="P58">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q58" t="s">
         <v>66</v>
@@ -3759,28 +3759,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I59">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J59">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K59">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L59">
-        <v>4.03896783473158E-28</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>4.03896783473158E-28</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O59">
-        <v>1.110223024633234E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P59">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950742e-12</v>
       </c>
       <c r="Q59" t="s">
         <v>77</v>
@@ -3812,28 +3812,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I60">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J60">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>2.01948391736579E-28</v>
+        <v>6.058451752097371e-28</v>
       </c>
       <c r="M60">
-        <v>2.01948391736579E-28</v>
+        <v>6.058451752097371e-28</v>
       </c>
       <c r="N60">
-        <v>2.01948391736579E-28</v>
+        <v>6.058451752097371e-28</v>
       </c>
       <c r="O60">
-        <v>4.03896783473158E-28</v>
+        <v>1.211690350419474e-27</v>
       </c>
       <c r="P60">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q60" t="s">
         <v>66</v>
@@ -3980,7 +3980,7 @@
         <v>0.1539468275811342</v>
       </c>
       <c r="L63">
-        <v>0.07181059217393571</v>
+        <v>0.07181059217393565</v>
       </c>
       <c r="M63">
         <v>-0.2257574197550699</v>
@@ -3989,7 +3989,7 @@
         <v>0.2257574197550699</v>
       </c>
       <c r="O63">
-        <v>0.4515148395101398</v>
+        <v>0.4515148395101397</v>
       </c>
       <c r="P63">
         <v>0.2215559749323388</v>
@@ -4033,13 +4033,13 @@
         <v>-0.2543822689259534</v>
       </c>
       <c r="L64">
-        <v>0.3473396132927584</v>
+        <v>0.3473396132927585</v>
       </c>
       <c r="M64">
-        <v>-0.09295734436680503</v>
+        <v>-0.09295734436680508</v>
       </c>
       <c r="N64">
-        <v>0.3473396132927584</v>
+        <v>0.3473396132927585</v>
       </c>
       <c r="O64">
         <v>0.6946792265855168</v>
@@ -4286,28 +4286,28 @@
         <v>2</v>
       </c>
       <c r="H69">
-        <v>0.4065414888845499</v>
+        <v>0.4065414888845498</v>
       </c>
       <c r="I69">
         <v>0.4016581708795613</v>
       </c>
       <c r="J69">
-        <v>0.1918003402358888</v>
+        <v>0.1918003402358889</v>
       </c>
       <c r="K69">
-        <v>0.1324166871336344</v>
+        <v>0.1324166871336343</v>
       </c>
       <c r="L69">
         <v>0.002957708560114514</v>
       </c>
       <c r="M69">
-        <v>-0.1353743956937489</v>
+        <v>-0.1353743956937488</v>
       </c>
       <c r="N69">
-        <v>0.1353743956937489</v>
+        <v>0.1353743956937488</v>
       </c>
       <c r="O69">
-        <v>0.2707487913874979</v>
+        <v>0.2707487913874976</v>
       </c>
       <c r="P69">
         <v>0.2122024536888719</v>
@@ -4348,13 +4348,13 @@
         <v>0.06622338718691112</v>
       </c>
       <c r="K70">
-        <v>-0.1273597186687766</v>
+        <v>-0.1273597186687765</v>
       </c>
       <c r="L70">
         <v>0.2529366717177542</v>
       </c>
       <c r="M70">
-        <v>-0.1255769530489776</v>
+        <v>-0.1255769530489778</v>
       </c>
       <c r="N70">
         <v>0.2529366717177542</v>
@@ -4554,25 +4554,25 @@
         <v>0.1684003100019817</v>
       </c>
       <c r="I74">
-        <v>0.2914638197092351</v>
+        <v>0.291463819709235</v>
       </c>
       <c r="J74">
-        <v>0.5401358702887832</v>
+        <v>0.5401358702887833</v>
       </c>
       <c r="K74">
         <v>-0.1712781745620191</v>
       </c>
       <c r="L74">
-        <v>0.0184437027247577</v>
+        <v>0.01844370272475765</v>
       </c>
       <c r="M74">
-        <v>0.1528344718372614</v>
+        <v>0.1528344718372615</v>
       </c>
       <c r="N74">
         <v>0.1712781745620191</v>
       </c>
       <c r="O74">
-        <v>0.3425563491240382</v>
+        <v>0.3425563491240383</v>
       </c>
       <c r="P74">
         <v>0.1983144730063726</v>
@@ -4616,16 +4616,16 @@
         <v>-0.110115143019519</v>
       </c>
       <c r="L75">
-        <v>0.2999880935365029</v>
+        <v>0.299988093536503</v>
       </c>
       <c r="M75">
-        <v>-0.1898729505169839</v>
+        <v>-0.1898729505169841</v>
       </c>
       <c r="N75">
-        <v>0.2999880935365029</v>
+        <v>0.299988093536503</v>
       </c>
       <c r="O75">
-        <v>0.5999761870730058</v>
+        <v>0.599976187073006</v>
       </c>
       <c r="P75">
         <v>0.1747011202202389</v>
@@ -4657,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.2932157764442092</v>
+        <v>0.293215776444209</v>
       </c>
       <c r="I76">
         <v>0.2597008793525803</v>
       </c>
       <c r="J76">
-        <v>0.4470833442032105</v>
+        <v>0.4470833442032106</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4719,19 +4719,19 @@
         <v>0.5180486010398933</v>
       </c>
       <c r="K77">
-        <v>-0.1563949373817903</v>
+        <v>-0.1563949373817902</v>
       </c>
       <c r="L77">
         <v>0.08542968054510752</v>
       </c>
       <c r="M77">
-        <v>0.07096525683668276</v>
+        <v>0.07096525683668264</v>
       </c>
       <c r="N77">
-        <v>0.1563949373817903</v>
+        <v>0.1563949373817902</v>
       </c>
       <c r="O77">
-        <v>0.3127898747635806</v>
+        <v>0.3127898747635804</v>
       </c>
       <c r="P77">
         <v>0.1979302005278578</v>
@@ -4869,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.5877794063005808</v>
+        <v>0.5877794063005809</v>
       </c>
       <c r="I80">
         <v>0.2260783859866171</v>
       </c>
       <c r="J80">
-        <v>0.1861422077128021</v>
+        <v>0.186142207712802</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0.189585003808809</v>
+        <v>0.1895850038088089</v>
       </c>
       <c r="Q80" t="s">
         <v>62</v>
@@ -4931,19 +4931,19 @@
         <v>0.3518521911222953</v>
       </c>
       <c r="K81">
-        <v>-0.2497981187860843</v>
+        <v>-0.2497981187860844</v>
       </c>
       <c r="L81">
         <v>0.08408813537659107</v>
       </c>
       <c r="M81">
-        <v>0.1657099834094932</v>
+        <v>0.1657099834094933</v>
       </c>
       <c r="N81">
-        <v>0.2497981187860843</v>
+        <v>0.2497981187860844</v>
       </c>
       <c r="O81">
-        <v>0.4995962375721685</v>
+        <v>0.4995962375721688</v>
       </c>
       <c r="P81">
         <v>0.2219218046393099</v>
@@ -4975,31 +4975,31 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.4848798181494605</v>
+        <v>0.4848798181494607</v>
       </c>
       <c r="I82">
         <v>0.3308028019796272</v>
       </c>
       <c r="J82">
-        <v>0.1843173798709123</v>
+        <v>0.1843173798709121</v>
       </c>
       <c r="K82">
-        <v>0.1468985306349639</v>
+        <v>0.1468985306349642</v>
       </c>
       <c r="L82">
         <v>0.02063628061641909</v>
       </c>
       <c r="M82">
-        <v>-0.167534811251383</v>
+        <v>-0.1675348112513833</v>
       </c>
       <c r="N82">
-        <v>0.167534811251383</v>
+        <v>0.1675348112513833</v>
       </c>
       <c r="O82">
-        <v>0.3350696225027661</v>
+        <v>0.3350696225027665</v>
       </c>
       <c r="P82">
-        <v>0.2071627238770985</v>
+        <v>0.2071627238770984</v>
       </c>
       <c r="Q82" t="s">
         <v>72</v>
@@ -5037,19 +5037,19 @@
         <v>0.08924196920913013</v>
       </c>
       <c r="K83">
-        <v>0.1502906341624781</v>
+        <v>0.1502906341624779</v>
       </c>
       <c r="L83">
         <v>-0.05521522350069596</v>
       </c>
       <c r="M83">
-        <v>-0.09507541066178216</v>
+        <v>-0.09507541066178193</v>
       </c>
       <c r="N83">
-        <v>0.1502906341624781</v>
+        <v>0.1502906341624779</v>
       </c>
       <c r="O83">
-        <v>0.3005812683249562</v>
+        <v>0.3005812683249558</v>
       </c>
       <c r="P83">
         <v>0.1708819513432143</v>
@@ -5187,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0.5410683950342962</v>
+        <v>0.541068395034296</v>
       </c>
       <c r="I86">
         <v>0.2404913244867283</v>
       </c>
       <c r="J86">
-        <v>0.2184402804789755</v>
+        <v>0.2184402804789756</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0.2005642528686321</v>
+        <v>0.2005642528686322</v>
       </c>
       <c r="Q86" t="s">
         <v>62</v>
@@ -5240,31 +5240,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.653320898308166</v>
+        <v>0.6533208983081662</v>
       </c>
       <c r="I87">
         <v>0.2466076746282138</v>
       </c>
       <c r="J87">
-        <v>0.1000714270636202</v>
+        <v>0.10007142706362</v>
       </c>
       <c r="K87">
-        <v>0.1122525032738698</v>
+        <v>0.1122525032738702</v>
       </c>
       <c r="L87">
         <v>0.00611635014148551</v>
       </c>
       <c r="M87">
-        <v>-0.1183688534153553</v>
+        <v>-0.1183688534153557</v>
       </c>
       <c r="N87">
-        <v>0.1183688534153553</v>
+        <v>0.1183688534153557</v>
       </c>
       <c r="O87">
-        <v>0.2367377068307107</v>
+        <v>0.2367377068307113</v>
       </c>
       <c r="P87">
-        <v>0.1674473893779089</v>
+        <v>0.1674473893779088</v>
       </c>
       <c r="Q87" t="s">
         <v>67</v>
@@ -5296,28 +5296,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I88">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J88">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K88">
-        <v>0.3466791016898338</v>
+        <v>0.3466791016898336</v>
       </c>
       <c r="L88">
         <v>-0.2466076746272138</v>
       </c>
       <c r="M88">
-        <v>-0.1000714270626202</v>
+        <v>-0.10007142706262</v>
       </c>
       <c r="N88">
-        <v>0.3466791016898338</v>
+        <v>0.3466791016898336</v>
       </c>
       <c r="O88">
-        <v>0.6933582033796679</v>
+        <v>0.6933582033796675</v>
       </c>
       <c r="P88">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q88" t="s">
         <v>67</v>
@@ -5349,10 +5349,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I89">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J89">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q89" t="s">
         <v>67</v>
@@ -5505,28 +5505,28 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.269017949846186</v>
+        <v>0.2690179498461859</v>
       </c>
       <c r="I92">
         <v>0.5882979529007327</v>
       </c>
       <c r="J92">
-        <v>0.1426840972530813</v>
+        <v>0.1426840972530814</v>
       </c>
       <c r="K92">
-        <v>-0.3686775358787742</v>
+        <v>-0.3686775358787743</v>
       </c>
       <c r="L92">
         <v>0.3268141177838556</v>
       </c>
       <c r="M92">
-        <v>0.04186341809491856</v>
+        <v>0.04186341809491867</v>
       </c>
       <c r="N92">
-        <v>0.3686775358787742</v>
+        <v>0.3686775358787743</v>
       </c>
       <c r="O92">
-        <v>0.7373550717575483</v>
+        <v>0.7373550717575486</v>
       </c>
       <c r="P92">
         <v>0.1870587032214785</v>
@@ -5567,13 +5567,13 @@
         <v>0.05801955758234989</v>
       </c>
       <c r="K93">
-        <v>-0.03637796478962851</v>
+        <v>-0.0363779647896284</v>
       </c>
       <c r="L93">
         <v>0.1210425044603599</v>
       </c>
       <c r="M93">
-        <v>-0.0846645396707314</v>
+        <v>-0.08466453967073151</v>
       </c>
       <c r="N93">
         <v>0.1210425044603599</v>
@@ -5720,10 +5720,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I96">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J96">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K96">
         <v>0.4947955262636795</v>
@@ -5741,7 +5741,7 @@
         <v>0.9895910525273591</v>
       </c>
       <c r="P96">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q96" t="s">
         <v>81</v>
@@ -5982,28 +5982,28 @@
         <v>2</v>
       </c>
       <c r="H101">
-        <v>0.3361203008577546</v>
+        <v>0.3361203008577547</v>
       </c>
       <c r="I101">
         <v>0.4083969730077529</v>
       </c>
       <c r="J101">
-        <v>0.2554827261344926</v>
+        <v>0.2554827261344925</v>
       </c>
       <c r="K101">
-        <v>-0.1749637394427681</v>
+        <v>-0.174963739442768</v>
       </c>
       <c r="L101">
         <v>0.06246554038631658</v>
       </c>
       <c r="M101">
-        <v>0.1124981990564515</v>
+        <v>0.1124981990564514</v>
       </c>
       <c r="N101">
-        <v>0.1749637394427681</v>
+        <v>0.174963739442768</v>
       </c>
       <c r="O101">
-        <v>0.3499274788855362</v>
+        <v>0.349927478885536</v>
       </c>
       <c r="P101">
         <v>0.2183212108120951</v>
@@ -6044,19 +6044,19 @@
         <v>0.1150390921090795</v>
       </c>
       <c r="K102">
-        <v>0.01102353901256559</v>
+        <v>0.01102353901256548</v>
       </c>
       <c r="L102">
         <v>0.1294200950128475</v>
       </c>
       <c r="M102">
-        <v>-0.1404436340254131</v>
+        <v>-0.140443634025413</v>
       </c>
       <c r="N102">
-        <v>0.1404436340254131</v>
+        <v>0.140443634025413</v>
       </c>
       <c r="O102">
-        <v>0.2808872680508262</v>
+        <v>0.280887268050826</v>
       </c>
       <c r="P102">
         <v>0.192336654357511</v>
@@ -6091,28 +6091,28 @@
         <v>0.07580318338782044</v>
       </c>
       <c r="I103">
-        <v>0.8630553733530204</v>
+        <v>0.8630553733530203</v>
       </c>
       <c r="J103">
-        <v>0.06114144325915916</v>
+        <v>0.06114144325915927</v>
       </c>
       <c r="K103">
         <v>-0.2713406564824997</v>
       </c>
       <c r="L103">
-        <v>0.32523830533242</v>
+        <v>0.3252383053324199</v>
       </c>
       <c r="M103">
-        <v>-0.05389764884992032</v>
+        <v>-0.05389764884992021</v>
       </c>
       <c r="N103">
-        <v>0.32523830533242</v>
+        <v>0.3252383053324199</v>
       </c>
       <c r="O103">
-        <v>0.6504766106648401</v>
+        <v>0.6504766106648399</v>
       </c>
       <c r="P103">
-        <v>0.08188367461031268</v>
+        <v>0.08188367461031275</v>
       </c>
       <c r="Q103" t="s">
         <v>68</v>
@@ -6144,19 +6144,19 @@
         <v>0.04613620859019119</v>
       </c>
       <c r="I104">
-        <v>0.8778054234093154</v>
+        <v>0.8778054234093156</v>
       </c>
       <c r="J104">
-        <v>0.07605836800049337</v>
+        <v>0.07605836800049326</v>
       </c>
       <c r="K104">
         <v>-0.02966697479762925</v>
       </c>
       <c r="L104">
-        <v>0.01475005005629504</v>
+        <v>0.01475005005629526</v>
       </c>
       <c r="M104">
-        <v>0.01491692474133421</v>
+        <v>0.01491692474133399</v>
       </c>
       <c r="N104">
         <v>0.02966697479762925</v>
@@ -6165,7 +6165,7 @@
         <v>0.05933394959525851</v>
       </c>
       <c r="P104">
-        <v>0.07384807118240544</v>
+        <v>0.07384807118240538</v>
       </c>
       <c r="Q104" t="s">
         <v>68</v>
@@ -6353,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0.6402242489883433</v>
+        <v>0.6402242489883432</v>
       </c>
       <c r="I108">
         <v>0.2074995990950966</v>
       </c>
       <c r="J108">
-        <v>0.1522761519165601</v>
+        <v>0.1522761519165602</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -6409,28 +6409,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I109">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J109">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K109">
-        <v>0.3597757510096566</v>
+        <v>0.3597757510096568</v>
       </c>
       <c r="L109">
         <v>-0.2074995990940966</v>
       </c>
       <c r="M109">
-        <v>-0.1522761519155601</v>
+        <v>-0.1522761519155602</v>
       </c>
       <c r="N109">
-        <v>0.3597757510096566</v>
+        <v>0.3597757510096568</v>
       </c>
       <c r="O109">
-        <v>0.7195515020193133</v>
+        <v>0.7195515020193135</v>
       </c>
       <c r="P109">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q109" t="s">
         <v>66</v>
@@ -6515,10 +6515,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I111">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J111">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K111">
         <v>0.390914370821317</v>
@@ -6536,7 +6536,7 @@
         <v>0.7818287416426341</v>
       </c>
       <c r="P111">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q111" t="s">
         <v>66</v>
@@ -6780,10 +6780,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I116">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="J116">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980047e-13</v>
       </c>
       <c r="K116">
         <v>0.28034449654094</v>
@@ -6801,7 +6801,7 @@
         <v>0.56068899308188</v>
       </c>
       <c r="P116">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q116" t="s">
         <v>80</v>
@@ -7204,19 +7204,19 @@
         <v>0.08994335142243215</v>
       </c>
       <c r="I124">
-        <v>0.440540888782615</v>
+        <v>0.4405408887826149</v>
       </c>
       <c r="J124">
-        <v>0.4695157597949528</v>
+        <v>0.4695157597949529</v>
       </c>
       <c r="K124">
         <v>-0.1095748604597058</v>
       </c>
       <c r="L124">
-        <v>0.08200978822065724</v>
+        <v>0.08200978822065713</v>
       </c>
       <c r="M124">
-        <v>0.02756507223904853</v>
+        <v>0.02756507223904864</v>
       </c>
       <c r="N124">
         <v>0.1095748604597058</v>
@@ -7266,16 +7266,16 @@
         <v>0.06410057190270035</v>
       </c>
       <c r="L125">
-        <v>0.09954526960003968</v>
+        <v>0.09954526960003979</v>
       </c>
       <c r="M125">
-        <v>-0.16364584150274</v>
+        <v>-0.1636458415027401</v>
       </c>
       <c r="N125">
-        <v>0.16364584150274</v>
+        <v>0.1636458415027401</v>
       </c>
       <c r="O125">
-        <v>0.3272916830054801</v>
+        <v>0.3272916830054803</v>
       </c>
       <c r="P125">
         <v>0.1970070014313272</v>
@@ -7360,13 +7360,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0.1696429213447633</v>
+        <v>0.1696429213447632</v>
       </c>
       <c r="I127">
         <v>0.2171764568067593</v>
       </c>
       <c r="J127">
-        <v>0.6131806218484773</v>
+        <v>0.6131806218484774</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -7422,19 +7422,19 @@
         <v>0.7643131494785993</v>
       </c>
       <c r="K128">
-        <v>-0.1047661990853695</v>
+        <v>-0.1047661990853694</v>
       </c>
       <c r="L128">
         <v>-0.04636632854475245</v>
       </c>
       <c r="M128">
-        <v>0.151132527630122</v>
+        <v>0.1511325276301219</v>
       </c>
       <c r="N128">
-        <v>0.151132527630122</v>
+        <v>0.1511325276301219</v>
       </c>
       <c r="O128">
-        <v>0.3022650552602439</v>
+        <v>0.3022650552602437</v>
       </c>
       <c r="P128">
         <v>0.1274801068420328</v>
@@ -7487,7 +7487,7 @@
         <v>0.2113681913934311</v>
       </c>
       <c r="O129">
-        <v>0.4227363827868623</v>
+        <v>0.4227363827868622</v>
       </c>
       <c r="P129">
         <v>0.1964627656536286</v>
@@ -7531,16 +7531,16 @@
         <v>-0.1057883502974826</v>
       </c>
       <c r="L130">
-        <v>0.2342677370338615</v>
+        <v>0.2342677370338616</v>
       </c>
       <c r="M130">
         <v>-0.1284793867363789</v>
       </c>
       <c r="N130">
-        <v>0.2342677370338615</v>
+        <v>0.2342677370338616</v>
       </c>
       <c r="O130">
-        <v>0.468535474067723</v>
+        <v>0.4685354740677231</v>
       </c>
       <c r="P130">
         <v>0.1858911527433569</v>
@@ -7731,31 +7731,31 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>0.4758040262098522</v>
+        <v>0.4758040262098524</v>
       </c>
       <c r="I134">
         <v>0.3512403414500231</v>
       </c>
       <c r="J134">
-        <v>0.1729556323401247</v>
+        <v>0.1729556323401245</v>
       </c>
       <c r="K134">
-        <v>-0.2395708469485932</v>
+        <v>-0.239570846948593</v>
       </c>
       <c r="L134">
         <v>0.1456188924372077</v>
       </c>
       <c r="M134">
-        <v>0.09395195451138555</v>
+        <v>0.09395195451138533</v>
       </c>
       <c r="N134">
-        <v>0.2395708469485932</v>
+        <v>0.239570846948593</v>
       </c>
       <c r="O134">
-        <v>0.4791416938971864</v>
+        <v>0.479141693897186</v>
       </c>
       <c r="P134">
-        <v>0.2067757001407977</v>
+        <v>0.2067757001407976</v>
       </c>
       <c r="Q134" t="s">
         <v>74</v>
@@ -7784,31 +7784,31 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>0.5070041498631627</v>
+        <v>0.5070041498631626</v>
       </c>
       <c r="I135">
         <v>0.4094348040468238</v>
       </c>
       <c r="J135">
-        <v>0.08356104609001352</v>
+        <v>0.08356104609001364</v>
       </c>
       <c r="K135">
-        <v>0.03120012365331049</v>
+        <v>0.03120012365331015</v>
       </c>
       <c r="L135">
         <v>0.05819446259680072</v>
       </c>
       <c r="M135">
-        <v>-0.08939458625011121</v>
+        <v>-0.08939458625011087</v>
       </c>
       <c r="N135">
-        <v>0.08939458625011121</v>
+        <v>0.08939458625011087</v>
       </c>
       <c r="O135">
-        <v>0.1787891725002224</v>
+        <v>0.1787891725002217</v>
       </c>
       <c r="P135">
-        <v>0.1894424949443377</v>
+        <v>0.1894424949443378</v>
       </c>
       <c r="Q135" t="s">
         <v>64</v>
@@ -7846,19 +7846,19 @@
         <v>0.07743889367161039</v>
       </c>
       <c r="K136">
-        <v>-0.3358076089953235</v>
+        <v>-0.3358076089953234</v>
       </c>
       <c r="L136">
         <v>0.3419297614137266</v>
       </c>
       <c r="M136">
-        <v>-0.006122152418403137</v>
+        <v>-0.006122152418403248</v>
       </c>
       <c r="N136">
         <v>0.3419297614137266</v>
       </c>
       <c r="O136">
-        <v>0.6838595228274533</v>
+        <v>0.6838595228274531</v>
       </c>
       <c r="P136">
         <v>0.1333820839706938</v>
@@ -7890,13 +7890,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.7314640366005577</v>
+        <v>0.7314640366005575</v>
       </c>
       <c r="I137">
         <v>0.1697396414134062</v>
       </c>
       <c r="J137">
-        <v>0.09879632198603608</v>
+        <v>0.0987963219860363</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="P137">
-        <v>0.1421293680182993</v>
+        <v>0.1421293680182994</v>
       </c>
       <c r="Q137" t="s">
         <v>62</v>
@@ -7952,19 +7952,19 @@
         <v>0.2242015438631454</v>
       </c>
       <c r="K138">
-        <v>-0.3242215621131447</v>
+        <v>-0.3242215621131445</v>
       </c>
       <c r="L138">
         <v>0.1988163402360354</v>
       </c>
       <c r="M138">
-        <v>0.1254052218771093</v>
+        <v>0.1254052218771091</v>
       </c>
       <c r="N138">
-        <v>0.3242215621131447</v>
+        <v>0.3242215621131445</v>
       </c>
       <c r="O138">
-        <v>0.6484431242262894</v>
+        <v>0.6484431242262889</v>
       </c>
       <c r="P138">
         <v>0.2160179076977224</v>
@@ -7996,31 +7996,31 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>0.5729951439123684</v>
+        <v>0.5729951439123683</v>
       </c>
       <c r="I139">
         <v>0.3125990368184736</v>
       </c>
       <c r="J139">
-        <v>0.114405819269158</v>
+        <v>0.1144058192691582</v>
       </c>
       <c r="K139">
-        <v>0.1657526694249554</v>
+        <v>0.1657526694249553</v>
       </c>
       <c r="L139">
         <v>-0.05595694483096803</v>
       </c>
       <c r="M139">
-        <v>-0.1097957245939873</v>
+        <v>-0.1097957245939872</v>
       </c>
       <c r="N139">
-        <v>0.1657526694249554</v>
+        <v>0.1657526694249553</v>
       </c>
       <c r="O139">
-        <v>0.3315053388499107</v>
+        <v>0.3315053388499105</v>
       </c>
       <c r="P139">
-        <v>0.1869565719167865</v>
+        <v>0.1869565719167866</v>
       </c>
       <c r="Q139" t="s">
         <v>69</v>
@@ -8052,28 +8052,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I140">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J140">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K140">
-        <v>0.4270048560856314</v>
+        <v>0.4270048560856315</v>
       </c>
       <c r="L140">
         <v>-0.3125990368174736</v>
       </c>
       <c r="M140">
-        <v>-0.114405819268158</v>
+        <v>-0.1144058192681582</v>
       </c>
       <c r="N140">
-        <v>0.4270048560856314</v>
+        <v>0.4270048560856315</v>
       </c>
       <c r="O140">
-        <v>0.8540097121712631</v>
+        <v>0.8540097121712633</v>
       </c>
       <c r="P140">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q140" t="s">
         <v>69</v>
@@ -8211,19 +8211,19 @@
         <v>0.3735831813836539</v>
       </c>
       <c r="I143">
-        <v>0.3299300488011719</v>
+        <v>0.329930048801172</v>
       </c>
       <c r="J143">
-        <v>0.2964867698151742</v>
+        <v>0.2964867698151741</v>
       </c>
       <c r="K143">
         <v>-0.2282114070474826</v>
       </c>
       <c r="L143">
-        <v>0.08312002997917126</v>
+        <v>0.08312002997917131</v>
       </c>
       <c r="M143">
-        <v>0.1450913770683113</v>
+        <v>0.1450913770683112</v>
       </c>
       <c r="N143">
         <v>0.2282114070474826</v>
@@ -8276,13 +8276,13 @@
         <v>0.2555486030208401</v>
       </c>
       <c r="M144">
-        <v>-0.02707522313514754</v>
+        <v>-0.02707522313514749</v>
       </c>
       <c r="N144">
         <v>0.2555486030208401</v>
       </c>
       <c r="O144">
-        <v>0.5110972060416803</v>
+        <v>0.5110972060416802</v>
       </c>
       <c r="P144">
         <v>0.1878584374284591</v>
@@ -8317,10 +8317,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I145">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J145">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="P145">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q145" t="s">
         <v>62</v>
@@ -8370,13 +8370,13 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I146">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J146">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K146">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -8385,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O146">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P146">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q146" t="s">
         <v>73</v>
@@ -8423,28 +8423,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I147">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J147">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K147">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L147">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="M147">
-        <v>2.01948391736579E-28</v>
+        <v>2.01948391736579e-28</v>
       </c>
       <c r="N147">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O147">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P147">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q147" t="s">
         <v>73</v>
@@ -8473,31 +8473,31 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.9999999999979999</v>
+        <v>0.9999999999979998</v>
       </c>
       <c r="I148">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J148">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M148">
-        <v>0</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O148">
-        <v>0</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P148">
-        <v>1.333355592950743E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q148" t="s">
         <v>73</v>
@@ -8635,10 +8635,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I151">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J151">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K151">
         <v>0.6130288537718364</v>
@@ -8656,7 +8656,7 @@
         <v>1.226057707543673</v>
       </c>
       <c r="P151">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q151" t="s">
         <v>84</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0.3931762281573054</v>
+        <v>0.3931762281573055</v>
       </c>
       <c r="I152">
         <v>0.2672556561679163</v>
       </c>
       <c r="J152">
-        <v>0.3395681156747783</v>
+        <v>0.3395681156747782</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -8747,19 +8747,19 @@
         <v>0.4879317353807646</v>
       </c>
       <c r="K153">
-        <v>-0.1919431225007914</v>
+        <v>-0.1919431225007915</v>
       </c>
       <c r="L153">
         <v>0.0435795027948051</v>
       </c>
       <c r="M153">
-        <v>0.1483636197059863</v>
+        <v>0.1483636197059864</v>
       </c>
       <c r="N153">
-        <v>0.1919431225007914</v>
+        <v>0.1919431225007915</v>
       </c>
       <c r="O153">
-        <v>0.3838862450015827</v>
+        <v>0.383886245001583</v>
       </c>
       <c r="P153">
         <v>0.2082697875829232</v>
@@ -9162,28 +9162,28 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>0.201620306227154</v>
+        <v>0.2016203062271541</v>
       </c>
       <c r="I161">
         <v>0.3966904527672709</v>
       </c>
       <c r="J161">
-        <v>0.4016892410055751</v>
+        <v>0.401689241005575</v>
       </c>
       <c r="K161">
-        <v>-0.2172794015398367</v>
+        <v>-0.2172794015398366</v>
       </c>
       <c r="L161">
         <v>0.131359478890111</v>
       </c>
       <c r="M161">
-        <v>0.0859199226497257</v>
+        <v>0.08591992264972559</v>
       </c>
       <c r="N161">
-        <v>0.2172794015398367</v>
+        <v>0.2172794015398366</v>
       </c>
       <c r="O161">
-        <v>0.4345588030796734</v>
+        <v>0.4345588030796732</v>
       </c>
       <c r="P161">
         <v>0.2135438968201771</v>
@@ -9215,13 +9215,13 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>0.48638959961892</v>
+        <v>0.4863895996189201</v>
       </c>
       <c r="I162">
         <v>0.2543047415188175</v>
       </c>
       <c r="J162">
-        <v>0.2593056588622624</v>
+        <v>0.2593056588622623</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -9277,19 +9277,19 @@
         <v>0.426093898716758</v>
       </c>
       <c r="K163">
-        <v>-0.2192928175791844</v>
+        <v>-0.2192928175791845</v>
       </c>
       <c r="L163">
         <v>0.05250457772468881</v>
       </c>
       <c r="M163">
-        <v>0.1667882398544956</v>
+        <v>0.1667882398544957</v>
       </c>
       <c r="N163">
-        <v>0.2192928175791844</v>
+        <v>0.2192928175791845</v>
       </c>
       <c r="O163">
-        <v>0.4385856351583688</v>
+        <v>0.438585635158369</v>
       </c>
       <c r="P163">
         <v>0.2176571133752358</v>
@@ -9483,10 +9483,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I167">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J167">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K167">
         <v>0.4120690034566976</v>
@@ -9504,7 +9504,7 @@
         <v>0.8241380069133954</v>
       </c>
       <c r="P167">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q167" t="s">
         <v>73</v>
@@ -9533,13 +9533,13 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0.3502871881847074</v>
+        <v>0.3502871881847073</v>
       </c>
       <c r="I168">
         <v>0.2670592863095483</v>
       </c>
       <c r="J168">
-        <v>0.3826535255057443</v>
+        <v>0.3826535255057444</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -9595,19 +9595,19 @@
         <v>0.1887749388804831</v>
       </c>
       <c r="K169">
-        <v>0.123335292712152</v>
+        <v>0.1233352927121522</v>
       </c>
       <c r="L169">
         <v>0.07054329391310921</v>
       </c>
       <c r="M169">
-        <v>-0.1938785866252613</v>
+        <v>-0.1938785866252614</v>
       </c>
       <c r="N169">
-        <v>0.1938785866252613</v>
+        <v>0.1938785866252614</v>
       </c>
       <c r="O169">
-        <v>0.3877571732505225</v>
+        <v>0.3877571732505227</v>
       </c>
       <c r="P169">
         <v>0.2086900886222594</v>
@@ -9639,28 +9639,28 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>0.2571692933995469</v>
+        <v>0.2571692933995468</v>
       </c>
       <c r="I170">
         <v>0.4676374474510122</v>
       </c>
       <c r="J170">
-        <v>0.275193259149441</v>
+        <v>0.2751932591494411</v>
       </c>
       <c r="K170">
-        <v>-0.2164531874973126</v>
+        <v>-0.2164531874973127</v>
       </c>
       <c r="L170">
         <v>0.1300348672283547</v>
       </c>
       <c r="M170">
-        <v>0.0864183202689579</v>
+        <v>0.08641832026895802</v>
       </c>
       <c r="N170">
-        <v>0.2164531874973126</v>
+        <v>0.2164531874973127</v>
       </c>
       <c r="O170">
-        <v>0.4329063749946251</v>
+        <v>0.4329063749946254</v>
       </c>
       <c r="P170">
         <v>0.2131492807975294</v>
@@ -9692,22 +9692,22 @@
         <v>2</v>
       </c>
       <c r="H171">
-        <v>0.08163972061883062</v>
+        <v>0.08163972061883074</v>
       </c>
       <c r="I171">
         <v>0.7319410672151498</v>
       </c>
       <c r="J171">
-        <v>0.1864192121660195</v>
+        <v>0.1864192121660194</v>
       </c>
       <c r="K171">
-        <v>-0.1755295727807162</v>
+        <v>-0.175529572780716</v>
       </c>
       <c r="L171">
         <v>0.2643036197641377</v>
       </c>
       <c r="M171">
-        <v>-0.08877404698342145</v>
+        <v>-0.08877404698342167</v>
       </c>
       <c r="N171">
         <v>0.2643036197641377</v>
@@ -9745,13 +9745,13 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0.5386074991032546</v>
+        <v>0.5386074991032545</v>
       </c>
       <c r="I172">
         <v>0.2411888167678478</v>
       </c>
       <c r="J172">
-        <v>0.2202036841288976</v>
+        <v>0.2202036841288977</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -9807,19 +9807,19 @@
         <v>0.09684149077081669</v>
       </c>
       <c r="K173">
-        <v>0.1523336756508167</v>
+        <v>0.1523336756508168</v>
       </c>
       <c r="L173">
         <v>-0.02897148229273577</v>
       </c>
       <c r="M173">
-        <v>-0.1233621933580809</v>
+        <v>-0.123362193358081</v>
       </c>
       <c r="N173">
-        <v>0.1523336756508167</v>
+        <v>0.1523336756508168</v>
       </c>
       <c r="O173">
-        <v>0.3046673513016334</v>
+        <v>0.3046673513016336</v>
       </c>
       <c r="P173">
         <v>0.1560619405476761</v>
@@ -9854,10 +9854,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I174">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J174">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K174">
         <v>0.3090588252439286</v>
@@ -9875,7 +9875,7 @@
         <v>0.6181176504878574</v>
       </c>
       <c r="P174">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q174" t="s">
         <v>80</v>
@@ -10446,7 +10446,7 @@
         <v>0.1469620970580372</v>
       </c>
       <c r="L185">
-        <v>0.09961292527055302</v>
+        <v>0.09961292527055296</v>
       </c>
       <c r="M185">
         <v>-0.2465750223285902</v>
@@ -10455,7 +10455,7 @@
         <v>0.2465750223285902</v>
       </c>
       <c r="O185">
-        <v>0.4931500446571805</v>
+        <v>0.4931500446571804</v>
       </c>
       <c r="P185">
         <v>0.2203581854886578</v>
@@ -10508,7 +10508,7 @@
         <v>0.2391940694291372</v>
       </c>
       <c r="O186">
-        <v>0.4783881388582744</v>
+        <v>0.4783881388582745</v>
       </c>
       <c r="P186">
         <v>0.1941118833253487</v>
@@ -10646,13 +10646,13 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0.5743103535225541</v>
+        <v>0.5743103535225542</v>
       </c>
       <c r="I189">
         <v>0.2304535328178085</v>
       </c>
       <c r="J189">
-        <v>0.1952361136596374</v>
+        <v>0.1952361136596373</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -10708,19 +10708,19 @@
         <v>0.09003584288769265</v>
       </c>
       <c r="K190">
-        <v>0.09829314772848941</v>
+        <v>0.09829314772848929</v>
       </c>
       <c r="L190">
         <v>0.006907123043455365</v>
       </c>
       <c r="M190">
-        <v>-0.1052002707719448</v>
+        <v>-0.1052002707719447</v>
       </c>
       <c r="N190">
-        <v>0.1052002707719448</v>
+        <v>0.1052002707719447</v>
       </c>
       <c r="O190">
-        <v>0.2104005415438895</v>
+        <v>0.2104005415438893</v>
       </c>
       <c r="P190">
         <v>0.1610526653831503</v>
@@ -10755,10 +10755,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I191">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="J191">
-        <v>9.999999999980039E-13</v>
+        <v>9.999999999980039e-13</v>
       </c>
       <c r="K191">
         <v>0.3273964987469563</v>
@@ -10776,7 +10776,7 @@
         <v>0.6547929974939127</v>
       </c>
       <c r="P191">
-        <v>1.333392600384896E-12</v>
+        <v>1.333392600384896e-12</v>
       </c>
       <c r="Q191" t="s">
         <v>69</v>
@@ -10861,10 +10861,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I193">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J193">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K193">
         <v>0.2596906596357766</v>
@@ -10882,7 +10882,7 @@
         <v>0.5193813192715535</v>
       </c>
       <c r="P193">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q193" t="s">
         <v>72</v>
@@ -11020,10 +11020,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I196">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J196">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K196">
         <v>0.4354848154290157</v>
@@ -11041,7 +11041,7 @@
         <v>0.8709696308580316</v>
       </c>
       <c r="P196">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q196" t="s">
         <v>74</v>
@@ -11138,7 +11138,7 @@
         <v>0.1809869538567483</v>
       </c>
       <c r="M198">
-        <v>0.1326517334399321</v>
+        <v>0.1326517334399322</v>
       </c>
       <c r="N198">
         <v>0.3136386872966804</v>
@@ -11441,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>0.05621122948338364</v>
+        <v>0.05621122948338375</v>
       </c>
       <c r="I204">
         <v>0.1886226065535279</v>
@@ -11450,7 +11450,7 @@
         <v>0.7551661639630884</v>
       </c>
       <c r="K204">
-        <v>-0.07153853885578076</v>
+        <v>-0.07153853885578065</v>
       </c>
       <c r="L204">
         <v>-0.005137846830289283</v>
@@ -11462,7 +11462,7 @@
         <v>0.07667638568606994</v>
       </c>
       <c r="O204">
-        <v>0.15335277137214</v>
+        <v>0.1533527713721399</v>
       </c>
       <c r="P204">
         <v>0.1303286249273977</v>
@@ -11653,28 +11653,28 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>0.1540294606435357</v>
+        <v>0.1540294606435356</v>
       </c>
       <c r="I208">
         <v>0.2206255994541157</v>
       </c>
       <c r="J208">
-        <v>0.6253449399023485</v>
+        <v>0.6253449399023486</v>
       </c>
       <c r="K208">
-        <v>-0.1726926917039662</v>
+        <v>-0.1726926917039663</v>
       </c>
       <c r="L208">
         <v>-0.04438228358300009</v>
       </c>
       <c r="M208">
-        <v>0.2170749752869662</v>
+        <v>0.2170749752869663</v>
       </c>
       <c r="N208">
-        <v>0.2170749752869662</v>
+        <v>0.2170749752869663</v>
       </c>
       <c r="O208">
-        <v>0.4341499505739325</v>
+        <v>0.4341499505739327</v>
       </c>
       <c r="P208">
         <v>0.1788476587526339</v>
@@ -11715,19 +11715,19 @@
         <v>0.338117418656026</v>
       </c>
       <c r="K209">
-        <v>0.1269651762864873</v>
+        <v>0.1269651762864874</v>
       </c>
       <c r="L209">
         <v>0.1602623449598353</v>
       </c>
       <c r="M209">
-        <v>-0.2872275212463226</v>
+        <v>-0.2872275212463227</v>
       </c>
       <c r="N209">
-        <v>0.2872275212463226</v>
+        <v>0.2872275212463227</v>
       </c>
       <c r="O209">
-        <v>0.5744550424926451</v>
+        <v>0.5744550424926453</v>
       </c>
       <c r="P209">
         <v>0.220547666339355</v>
@@ -11865,31 +11865,31 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>0.2334268662450788</v>
+        <v>0.2334268662450789</v>
       </c>
       <c r="I212">
         <v>0.2614238166180359</v>
       </c>
       <c r="J212">
-        <v>0.5051493171368853</v>
+        <v>0.5051493171368852</v>
       </c>
       <c r="K212">
-        <v>-0.1975985854799538</v>
+        <v>-0.1975985854799537</v>
       </c>
       <c r="L212">
         <v>-0.002522077576317949</v>
       </c>
       <c r="M212">
-        <v>0.2001206630562717</v>
+        <v>0.2001206630562716</v>
       </c>
       <c r="N212">
-        <v>0.2001206630562717</v>
+        <v>0.2001206630562716</v>
       </c>
       <c r="O212">
-        <v>0.4002413261125435</v>
+        <v>0.4002413261125433</v>
       </c>
       <c r="P212">
-        <v>0.207331217872</v>
+        <v>0.2073312178720001</v>
       </c>
       <c r="Q212" t="s">
         <v>81</v>
@@ -11921,25 +11921,25 @@
         <v>0.1028057763727876</v>
       </c>
       <c r="I213">
-        <v>0.427919321950428</v>
+        <v>0.4279193219504279</v>
       </c>
       <c r="J213">
         <v>0.4692749016767844</v>
       </c>
       <c r="K213">
-        <v>-0.1306210898722912</v>
+        <v>-0.1306210898722913</v>
       </c>
       <c r="L213">
         <v>0.166495505332392</v>
       </c>
       <c r="M213">
-        <v>-0.03587441546010089</v>
+        <v>-0.03587441546010073</v>
       </c>
       <c r="N213">
         <v>0.166495505332392</v>
       </c>
       <c r="O213">
-        <v>0.3329910106647841</v>
+        <v>0.332991010664784</v>
       </c>
       <c r="P213">
         <v>0.1953656976340396</v>
@@ -11971,13 +11971,13 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0.6584084707494688</v>
+        <v>0.658408470749469</v>
       </c>
       <c r="I214">
         <v>0.2005144061535595</v>
       </c>
       <c r="J214">
-        <v>0.1410771230969716</v>
+        <v>0.1410771230969715</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="P214">
-        <v>0.1687965013029711</v>
+        <v>0.168796501302971</v>
       </c>
       <c r="Q214" t="s">
         <v>62</v>
@@ -12027,28 +12027,28 @@
         <v>0.1605828799256026</v>
       </c>
       <c r="I215">
-        <v>0.707493917924768</v>
+        <v>0.7074939179247679</v>
       </c>
       <c r="J215">
-        <v>0.1319232021496294</v>
+        <v>0.1319232021496295</v>
       </c>
       <c r="K215">
-        <v>-0.4978255908238662</v>
+        <v>-0.4978255908238663</v>
       </c>
       <c r="L215">
-        <v>0.5069795117712085</v>
+        <v>0.5069795117712084</v>
       </c>
       <c r="M215">
-        <v>-0.009153920947342242</v>
+        <v>-0.00915392094734202</v>
       </c>
       <c r="N215">
-        <v>0.5069795117712085</v>
+        <v>0.5069795117712084</v>
       </c>
       <c r="O215">
         <v>1.013959023542417</v>
       </c>
       <c r="P215">
-        <v>0.1520872545029497</v>
+        <v>0.1520872545029498</v>
       </c>
       <c r="Q215" t="s">
         <v>88</v>
@@ -12077,13 +12077,13 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0.3433549148014385</v>
+        <v>0.3433549148014384</v>
       </c>
       <c r="I216">
         <v>0.2666012849006102</v>
       </c>
       <c r="J216">
-        <v>0.3900438002979512</v>
+        <v>0.3900438002979513</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -12139,19 +12139,19 @@
         <v>0.2360923737824241</v>
       </c>
       <c r="K217">
-        <v>-0.2450564875903116</v>
+        <v>-0.2450564875903115</v>
       </c>
       <c r="L217">
         <v>0.3990079141058387</v>
       </c>
       <c r="M217">
-        <v>-0.1539514265155271</v>
+        <v>-0.1539514265155272</v>
       </c>
       <c r="N217">
         <v>0.3990079141058387</v>
       </c>
       <c r="O217">
-        <v>0.7980158282116774</v>
+        <v>0.7980158282116776</v>
       </c>
       <c r="P217">
         <v>0.1638540681491975</v>
@@ -12354,16 +12354,16 @@
         <v>0.1387390084186627</v>
       </c>
       <c r="L221">
-        <v>0.01469575484837632</v>
+        <v>0.01469575484837637</v>
       </c>
       <c r="M221">
-        <v>-0.153434763267039</v>
+        <v>-0.1534347632670391</v>
       </c>
       <c r="N221">
-        <v>0.153434763267039</v>
+        <v>0.1534347632670391</v>
       </c>
       <c r="O221">
-        <v>0.3068695265340781</v>
+        <v>0.3068695265340782</v>
       </c>
       <c r="P221">
         <v>0.2160793426397116</v>
@@ -12395,28 +12395,28 @@
         <v>2</v>
       </c>
       <c r="H222">
-        <v>0.2482061949724347</v>
+        <v>0.2482061949724348</v>
       </c>
       <c r="I222">
         <v>0.3976941391726662</v>
       </c>
       <c r="J222">
-        <v>0.3540996658548991</v>
+        <v>0.354099665854899</v>
       </c>
       <c r="K222">
-        <v>-0.150804545446045</v>
+        <v>-0.1508045454460449</v>
       </c>
       <c r="L222">
-        <v>0.01987436455375285</v>
+        <v>0.0198743645537528</v>
       </c>
       <c r="M222">
-        <v>0.1309301808922922</v>
+        <v>0.1309301808922921</v>
       </c>
       <c r="N222">
-        <v>0.150804545446045</v>
+        <v>0.1508045454460449</v>
       </c>
       <c r="O222">
-        <v>0.3016090908920901</v>
+        <v>0.3016090908920899</v>
       </c>
       <c r="P222">
         <v>0.2182821610288222</v>
@@ -12457,19 +12457,19 @@
         <v>0.2118292984755886</v>
       </c>
       <c r="K223">
-        <v>0.1218937354131898</v>
+        <v>0.1218937354131897</v>
       </c>
       <c r="L223">
         <v>0.02037663196612072</v>
       </c>
       <c r="M223">
-        <v>-0.1422703673793105</v>
+        <v>-0.1422703673793104</v>
       </c>
       <c r="N223">
-        <v>0.1422703673793105</v>
+        <v>0.1422703673793104</v>
       </c>
       <c r="O223">
-        <v>0.2845407347586211</v>
+        <v>0.2845407347586209</v>
       </c>
       <c r="P223">
         <v>0.2144570733851053</v>
@@ -12766,13 +12766,13 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0.7241478170655453</v>
+        <v>0.7241478170655452</v>
       </c>
       <c r="I229">
         <v>0.1730176752776907</v>
       </c>
       <c r="J229">
-        <v>0.102834507656764</v>
+        <v>0.1028345076567641</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -12822,28 +12822,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I230">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J230">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K230">
-        <v>0.2758521829324546</v>
+        <v>0.2758521829324547</v>
       </c>
       <c r="L230">
         <v>-0.1730176752766907</v>
       </c>
       <c r="M230">
-        <v>-0.102834507655764</v>
+        <v>-0.1028345076557641</v>
       </c>
       <c r="N230">
-        <v>0.2758521829324546</v>
+        <v>0.2758521829324547</v>
       </c>
       <c r="O230">
-        <v>0.5517043658649092</v>
+        <v>0.5517043658649095</v>
       </c>
       <c r="P230">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q230" t="s">
         <v>69</v>
@@ -12928,10 +12928,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I232">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J232">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K232">
         <v>0.3737716508851079</v>
@@ -12949,7 +12949,7 @@
         <v>0.747543301770216</v>
       </c>
       <c r="P232">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q232" t="s">
         <v>84</v>
@@ -12981,10 +12981,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I233">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J233">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="P233">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q233" t="s">
         <v>84</v>
@@ -13034,10 +13034,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I234">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J234">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="P234">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q234" t="s">
         <v>81</v>
@@ -13087,13 +13087,13 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I235">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J235">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K235">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -13102,13 +13102,13 @@
         <v>0</v>
       </c>
       <c r="N235">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O235">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P235">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q235" t="s">
         <v>84</v>
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>0.124664137850152</v>
+        <v>0.1246641378501518</v>
       </c>
       <c r="I236">
         <v>0.191802334244751</v>
@@ -13199,7 +13199,7 @@
         <v>0.4631490556428836</v>
       </c>
       <c r="K237">
-        <v>-0.06611339417459261</v>
+        <v>-0.0661133941745925</v>
       </c>
       <c r="L237">
         <v>0.2864978664368061</v>
@@ -13211,7 +13211,7 @@
         <v>0.2864978664368061</v>
       </c>
       <c r="O237">
-        <v>0.5729957328736124</v>
+        <v>0.5729957328736122</v>
       </c>
       <c r="P237">
         <v>0.1844312269000421</v>
@@ -13246,25 +13246,25 @@
         <v>0.03132805468121058</v>
       </c>
       <c r="I238">
-        <v>0.5241238850128458</v>
+        <v>0.5241238850128459</v>
       </c>
       <c r="J238">
-        <v>0.4445480603059436</v>
+        <v>0.4445480603059435</v>
       </c>
       <c r="K238">
         <v>-0.02722268899434876</v>
       </c>
       <c r="L238">
-        <v>0.04582368433128869</v>
+        <v>0.04582368433128881</v>
       </c>
       <c r="M238">
-        <v>-0.01860099533693993</v>
+        <v>-0.01860099533694004</v>
       </c>
       <c r="N238">
-        <v>0.04582368433128869</v>
+        <v>0.04582368433128881</v>
       </c>
       <c r="O238">
-        <v>0.09164736866257739</v>
+        <v>0.09164736866257761</v>
       </c>
       <c r="P238">
         <v>0.1755632427423851</v>
@@ -13458,28 +13458,28 @@
         <v>0.1128810976172678</v>
       </c>
       <c r="I242">
-        <v>0.4825443617150304</v>
+        <v>0.4825443617150305</v>
       </c>
       <c r="J242">
-        <v>0.4045745406677018</v>
+        <v>0.4045745406677017</v>
       </c>
       <c r="K242">
         <v>0.05187201848382705</v>
       </c>
       <c r="L242">
-        <v>0.1488326852830969</v>
+        <v>0.148832685283097</v>
       </c>
       <c r="M242">
-        <v>-0.200704703766924</v>
+        <v>-0.2007047037669241</v>
       </c>
       <c r="N242">
-        <v>0.200704703766924</v>
+        <v>0.2007047037669241</v>
       </c>
       <c r="O242">
-        <v>0.401409407533848</v>
+        <v>0.4014094075338482</v>
       </c>
       <c r="P242">
-        <v>0.196909412607091</v>
+        <v>0.1969094126070909</v>
       </c>
       <c r="Q242" t="s">
         <v>80</v>
@@ -13511,25 +13511,25 @@
         <v>0.05220583029668713</v>
       </c>
       <c r="I243">
-        <v>0.5440336653185279</v>
+        <v>0.5440336653185278</v>
       </c>
       <c r="J243">
-        <v>0.4037605043847849</v>
+        <v>0.4037605043847851</v>
       </c>
       <c r="K243">
         <v>-0.06067526732058071</v>
       </c>
       <c r="L243">
-        <v>0.06148930360349752</v>
+        <v>0.0614893036034973</v>
       </c>
       <c r="M243">
-        <v>-0.0008140362829168191</v>
+        <v>-0.000814036282916597</v>
       </c>
       <c r="N243">
-        <v>0.06148930360349752</v>
+        <v>0.0614893036034973</v>
       </c>
       <c r="O243">
-        <v>0.122978607206995</v>
+        <v>0.1229786072069946</v>
       </c>
       <c r="P243">
         <v>0.1794264591273552</v>
@@ -13573,16 +13573,16 @@
         <v>-0.02239638932556753</v>
       </c>
       <c r="L244">
-        <v>-0.007763071932079368</v>
+        <v>-0.007763071932079257</v>
       </c>
       <c r="M244">
-        <v>0.0301594612576469</v>
+        <v>0.03015946125764679</v>
       </c>
       <c r="N244">
-        <v>0.0301594612576469</v>
+        <v>0.03015946125764679</v>
       </c>
       <c r="O244">
-        <v>0.0603189225152938</v>
+        <v>0.06031892251529358</v>
       </c>
       <c r="P244">
         <v>0.1744129037716022</v>
@@ -13826,13 +13826,13 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>0.5999351696515161</v>
+        <v>0.5999351696515159</v>
       </c>
       <c r="I249">
         <v>0.2219864035361995</v>
       </c>
       <c r="J249">
-        <v>0.1780784268122845</v>
+        <v>0.1780784268122846</v>
       </c>
       <c r="K249">
         <v>0</v>
@@ -13888,19 +13888,19 @@
         <v>0.3440298636339557</v>
       </c>
       <c r="K250">
-        <v>-0.2520329056068571</v>
+        <v>-0.252032905606857</v>
       </c>
       <c r="L250">
         <v>0.08608146878518591</v>
       </c>
       <c r="M250">
-        <v>0.1659514368216712</v>
+        <v>0.1659514368216711</v>
       </c>
       <c r="N250">
-        <v>0.2520329056068571</v>
+        <v>0.252032905606857</v>
       </c>
       <c r="O250">
-        <v>0.5040658112137142</v>
+        <v>0.504065811213714</v>
       </c>
       <c r="P250">
         <v>0.2219005512146589</v>
@@ -13988,10 +13988,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I252">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J252">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K252">
         <v>0.3092559910297279</v>
@@ -14009,7 +14009,7 @@
         <v>0.6185119820594559</v>
       </c>
       <c r="P252">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q252" t="s">
         <v>83</v>
@@ -14094,10 +14094,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I254">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J254">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K254">
         <v>0.4341704194934076</v>
@@ -14115,7 +14115,7 @@
         <v>0.8683408389868155</v>
       </c>
       <c r="P254">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q254" t="s">
         <v>83</v>
@@ -14147,28 +14147,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I255">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J255">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K255">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="L255">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="M255">
-        <v>-2.01948391736579E-28</v>
+        <v>-2.01948391736579e-28</v>
       </c>
       <c r="N255">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O255">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024629196e-16</v>
       </c>
       <c r="P255">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q255" t="s">
         <v>83</v>
@@ -14730,10 +14730,10 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I266">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="J266">
-        <v>9.999999999980043E-13</v>
+        <v>9.999999999980043e-13</v>
       </c>
       <c r="K266">
         <v>0.221554507922974</v>
@@ -14751,7 +14751,7 @@
         <v>0.4431090158459483</v>
       </c>
       <c r="P266">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q266" t="s">
         <v>74</v>
@@ -14836,19 +14836,19 @@
         <v>0.2224788459626035</v>
       </c>
       <c r="I268">
-        <v>0.6722468045614964</v>
+        <v>0.6722468045614963</v>
       </c>
       <c r="J268">
-        <v>0.1052743494759001</v>
+        <v>0.1052743494759002</v>
       </c>
       <c r="K268">
         <v>-0.3148279166919418</v>
       </c>
       <c r="L268">
-        <v>0.2996470382120657</v>
+        <v>0.2996470382120656</v>
       </c>
       <c r="M268">
-        <v>0.01518087847987604</v>
+        <v>0.01518087847987615</v>
       </c>
       <c r="N268">
         <v>0.3148279166919418</v>
@@ -14898,16 +14898,16 @@
         <v>-0.0888400519458743</v>
       </c>
       <c r="L269">
-        <v>0.1629286648224485</v>
+        <v>0.1629286648224486</v>
       </c>
       <c r="M269">
-        <v>-0.0740886128765742</v>
+        <v>-0.07408861287657431</v>
       </c>
       <c r="N269">
-        <v>0.1629286648224485</v>
+        <v>0.1629286648224486</v>
       </c>
       <c r="O269">
-        <v>0.325857329644897</v>
+        <v>0.3258573296448972</v>
       </c>
       <c r="P269">
         <v>0.09455001930193967</v>
@@ -15101,19 +15101,19 @@
         <v>0.3140473288958254</v>
       </c>
       <c r="I273">
-        <v>0.5057943827736082</v>
+        <v>0.5057943827736083</v>
       </c>
       <c r="J273">
-        <v>0.1801582883305664</v>
+        <v>0.1801582883305662</v>
       </c>
       <c r="K273">
         <v>-0.1511713119854419</v>
       </c>
       <c r="L273">
-        <v>0.07651336672690456</v>
+        <v>0.07651336672690467</v>
       </c>
       <c r="M273">
-        <v>0.07465794525853731</v>
+        <v>0.07465794525853719</v>
       </c>
       <c r="N273">
         <v>0.1511713119854419</v>
@@ -15154,10 +15154,10 @@
         <v>0.2820160724451063</v>
       </c>
       <c r="I274">
-        <v>0.6432289092269161</v>
+        <v>0.6432289092269162</v>
       </c>
       <c r="J274">
-        <v>0.0747550183279776</v>
+        <v>0.07475501832797748</v>
       </c>
       <c r="K274">
         <v>-0.03203125645071914</v>
@@ -15257,28 +15257,28 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>0.6127260852314491</v>
+        <v>0.6127260852314493</v>
       </c>
       <c r="I276">
         <v>0.2580337292059834</v>
       </c>
       <c r="J276">
-        <v>0.1292401855625675</v>
+        <v>0.1292401855625673</v>
       </c>
       <c r="K276">
-        <v>0.151028248643728</v>
+        <v>0.1510282486437282</v>
       </c>
       <c r="L276">
         <v>-0.001191441970150697</v>
       </c>
       <c r="M276">
-        <v>-0.1498368066735773</v>
+        <v>-0.1498368066735775</v>
       </c>
       <c r="N276">
-        <v>0.151028248643728</v>
+        <v>0.1510282486437282</v>
       </c>
       <c r="O276">
-        <v>0.302056497287456</v>
+        <v>0.3020564972874564</v>
       </c>
       <c r="P276">
         <v>0.1804274378349164</v>
@@ -15310,28 +15310,28 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>0.3700382510568393</v>
+        <v>0.3700382510568392</v>
       </c>
       <c r="I277">
         <v>0.3853251045003345</v>
       </c>
       <c r="J277">
-        <v>0.2446366444428262</v>
+        <v>0.2446366444428263</v>
       </c>
       <c r="K277">
-        <v>-0.2426878341746098</v>
+        <v>-0.2426878341746102</v>
       </c>
       <c r="L277">
         <v>0.1272913752943511</v>
       </c>
       <c r="M277">
-        <v>0.1153964588802587</v>
+        <v>0.1153964588802591</v>
       </c>
       <c r="N277">
-        <v>0.2426878341746098</v>
+        <v>0.2426878341746102</v>
       </c>
       <c r="O277">
-        <v>0.4853756683492196</v>
+        <v>0.4853756683492203</v>
       </c>
       <c r="P277">
         <v>0.2182497229307854</v>
@@ -15372,19 +15372,19 @@
         <v>0.3913174800604335</v>
       </c>
       <c r="K278">
-        <v>-0.1381898753944731</v>
+        <v>-0.138189875394473</v>
       </c>
       <c r="L278">
         <v>-0.008490960223134114</v>
       </c>
       <c r="M278">
-        <v>0.1466808356176073</v>
+        <v>0.1466808356176071</v>
       </c>
       <c r="N278">
-        <v>0.1466808356176073</v>
+        <v>0.1466808356176071</v>
       </c>
       <c r="O278">
-        <v>0.2933616712352145</v>
+        <v>0.2933616712352143</v>
       </c>
       <c r="P278">
         <v>0.2170376627362482</v>
@@ -15469,13 +15469,13 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>0.444499881013806</v>
+        <v>0.4444998810138061</v>
       </c>
       <c r="I280">
         <v>0.2620770925775258</v>
       </c>
       <c r="J280">
-        <v>0.2934230264086682</v>
+        <v>0.2934230264086681</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -15531,13 +15531,13 @@
         <v>0.01593894286062669</v>
       </c>
       <c r="K281">
-        <v>-0.4342362102039163</v>
+        <v>-0.4342362102039165</v>
       </c>
       <c r="L281">
         <v>0.7117202937519579</v>
       </c>
       <c r="M281">
-        <v>-0.2774840835480415</v>
+        <v>-0.2774840835480414</v>
       </c>
       <c r="N281">
         <v>0.7117202937519579</v>
@@ -15628,28 +15628,28 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <v>0.5546127583216854</v>
+        <v>0.5546127583216853</v>
       </c>
       <c r="I283">
         <v>0.2763696910003493</v>
       </c>
       <c r="J283">
-        <v>0.1690175506779653</v>
+        <v>0.1690175506779654</v>
       </c>
       <c r="K283">
-        <v>0.1677182426833225</v>
+        <v>0.1677182426833224</v>
       </c>
       <c r="L283">
         <v>0.008867332265313055</v>
       </c>
       <c r="M283">
-        <v>-0.1765855749486355</v>
+        <v>-0.1765855749486354</v>
       </c>
       <c r="N283">
-        <v>0.1765855749486355</v>
+        <v>0.1765855749486354</v>
       </c>
       <c r="O283">
-        <v>0.3531711498972711</v>
+        <v>0.3531711498972708</v>
       </c>
       <c r="P283">
         <v>0.1958191832553349</v>
@@ -15690,13 +15690,13 @@
         <v>0.08442876343954742</v>
       </c>
       <c r="K284">
-        <v>-0.4638498545416406</v>
+        <v>-0.4638498545416405</v>
       </c>
       <c r="L284">
         <v>0.5484386417800584</v>
       </c>
       <c r="M284">
-        <v>-0.08458878723841784</v>
+        <v>-0.08458878723841795</v>
       </c>
       <c r="N284">
         <v>0.5484386417800584</v>
@@ -15787,31 +15787,31 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>0.05131341934674227</v>
+        <v>0.05131341934674238</v>
       </c>
       <c r="I286">
         <v>0.1436625549990253</v>
       </c>
       <c r="J286">
-        <v>0.8050240256542324</v>
+        <v>0.8050240256542323</v>
       </c>
       <c r="K286">
-        <v>-0.08541789232390717</v>
+        <v>-0.08541789232390706</v>
       </c>
       <c r="L286">
         <v>-0.05560001813367887</v>
       </c>
       <c r="M286">
-        <v>0.141017910457586</v>
+        <v>0.1410179104575859</v>
       </c>
       <c r="N286">
-        <v>0.141017910457586</v>
+        <v>0.1410179104575859</v>
       </c>
       <c r="O286">
-        <v>0.2820358209151721</v>
+        <v>0.2820358209151719</v>
       </c>
       <c r="P286">
-        <v>0.1095547738018504</v>
+        <v>0.1095547738018505</v>
       </c>
       <c r="Q286" t="s">
         <v>68</v>
@@ -16002,10 +16002,10 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I290">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J290">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="P290">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q290" t="s">
         <v>62</v>
@@ -16055,28 +16055,28 @@
         <v>0.9999999999979999</v>
       </c>
       <c r="I291">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J291">
-        <v>9.999999999980047E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K291">
         <v>0</v>
       </c>
       <c r="L291">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="M291">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="N291">
-        <v>2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="O291">
-        <v>4.03896783473158E-28</v>
+        <v>0</v>
       </c>
       <c r="P291">
-        <v>1.333355592950743E-12</v>
+        <v>1.333355592950743e-12</v>
       </c>
       <c r="Q291" t="s">
         <v>66</v>
@@ -16108,28 +16108,28 @@
         <v>0.9999999999979998</v>
       </c>
       <c r="I292">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="J292">
-        <v>9.999999999980045E-13</v>
+        <v>9.999999999980045e-13</v>
       </c>
       <c r="K292">
-        <v>-1.110223024625157E-16</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="L292">
-        <v>-2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="M292">
-        <v>-2.01948391736579E-28</v>
+        <v>0</v>
       </c>
       <c r="N292">
-        <v>1.110223024625157E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="O292">
-        <v>1.110223024629196E-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="P292">
-        <v>1.333392600384897E-12</v>
+        <v>1.333392600384897e-12</v>
       </c>
       <c r="Q292" t="s">
         <v>87</v>
@@ -16264,28 +16264,28 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>0.5133254412792134</v>
+        <v>0.5133254412792135</v>
       </c>
       <c r="I295">
         <v>0.3360670525018262</v>
       </c>
       <c r="J295">
-        <v>0.1506075062189604</v>
+        <v>0.1506075062189603</v>
       </c>
       <c r="K295">
-        <v>0.1043603797758552</v>
+        <v>0.1043603797758553</v>
       </c>
       <c r="L295">
         <v>0.06041472402389042</v>
       </c>
       <c r="M295">
-        <v>-0.1647751037997456</v>
+        <v>-0.1647751037997457</v>
       </c>
       <c r="N295">
-        <v>0.1647751037997456</v>
+        <v>0.1647751037997457</v>
       </c>
       <c r="O295">
-        <v>0.3295502075994913</v>
+        <v>0.3295502075994915</v>
       </c>
       <c r="P295">
         <v>0.2002911022095805</v>
@@ -16326,19 +16326,19 @@
         <v>0.2448774004795338</v>
       </c>
       <c r="K296">
-        <v>-0.2125254987356986</v>
+        <v>-0.2125254987356987</v>
       </c>
       <c r="L296">
         <v>0.1182556044751252</v>
       </c>
       <c r="M296">
-        <v>0.09426989426057342</v>
+        <v>0.09426989426057353</v>
       </c>
       <c r="N296">
-        <v>0.2125254987356986</v>
+        <v>0.2125254987356987</v>
       </c>
       <c r="O296">
-        <v>0.4250509974713972</v>
+        <v>0.4250509974713974</v>
       </c>
       <c r="P296">
         <v>0.2143817922192025</v>
@@ -16535,13 +16535,13 @@
         <v>0.2096583832076645</v>
       </c>
       <c r="J300">
-        <v>0.09399727398029553</v>
+        <v>0.09399727398029556</v>
       </c>
       <c r="K300">
         <v>0.1491190074550484</v>
       </c>
       <c r="L300">
-        <v>-0.02905936831812705</v>
+        <v>-0.02905936831812708</v>
       </c>
       <c r="M300">
         <v>-0.1200596391369213</v>
@@ -16594,7 +16594,7 @@
         <v>-0.2313390161871374</v>
       </c>
       <c r="L301">
-        <v>0.1177073488318704</v>
+        <v>0.1177073488318705</v>
       </c>
       <c r="M301">
         <v>0.1136316673552669</v>
@@ -16744,28 +16744,28 @@
         <v>0.3483837328431379</v>
       </c>
       <c r="I304">
-        <v>0.4808413364242239</v>
+        <v>0.4808413364242241</v>
       </c>
       <c r="J304">
-        <v>0.1707749307326381</v>
+        <v>0.170774930732638</v>
       </c>
       <c r="K304">
         <v>0.07715369728393717</v>
       </c>
       <c r="L304">
-        <v>0.07231220535836502</v>
+        <v>0.07231220535836513</v>
       </c>
       <c r="M304">
-        <v>-0.1494659026423022</v>
+        <v>-0.1494659026423023</v>
       </c>
       <c r="N304">
-        <v>0.1494659026423022</v>
+        <v>0.1494659026423023</v>
       </c>
       <c r="O304">
-        <v>0.2989318052846044</v>
+        <v>0.2989318052846046</v>
       </c>
       <c r="P304">
-        <v>0.2060854356364367</v>
+        <v>0.2060854356364366</v>
       </c>
       <c r="Q304" t="s">
         <v>79</v>
@@ -16806,13 +16806,13 @@
         <v>-0.2841893721170842</v>
       </c>
       <c r="L305">
-        <v>0.3818562729487591</v>
+        <v>0.381856272948759</v>
       </c>
       <c r="M305">
-        <v>-0.0976669008316749</v>
+        <v>-0.09766690083167479</v>
       </c>
       <c r="N305">
-        <v>0.3818562729487591</v>
+        <v>0.381856272948759</v>
       </c>
       <c r="O305">
         <v>0.763712545897518</v>
